--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>chaos</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -91,169 +76,151 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>boost</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>join</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -611,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -730,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -780,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L7">
         <v>31</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>7</v>
-      </c>
       <c r="M7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,31 +915,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>112</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1030,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7142857142857143</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,31 +1165,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>159</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,675 +1197,531 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4117647058823529</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>134</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.828125</v>
+      </c>
+      <c r="L14">
+        <v>106</v>
+      </c>
+      <c r="M14">
+        <v>106</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L15">
+        <v>67</v>
+      </c>
+      <c r="M15">
+        <v>67</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L18">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>92</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L19">
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <v>37</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L20">
+        <v>103</v>
+      </c>
+      <c r="M20">
+        <v>103</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+      <c r="M21">
+        <v>76</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.69375</v>
+      </c>
+      <c r="L24">
+        <v>111</v>
+      </c>
+      <c r="M24">
+        <v>111</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L25">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>8</v>
       </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L27">
+        <v>23</v>
+      </c>
+      <c r="M27">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L29">
+        <v>58</v>
+      </c>
+      <c r="M29">
+        <v>58</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L32">
         <v>18</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="M32">
+        <v>18</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>16</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L16">
-        <v>47</v>
-      </c>
-      <c r="M16">
-        <v>47</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3090128755364807</v>
-      </c>
-      <c r="C17">
-        <v>72</v>
-      </c>
-      <c r="D17">
-        <v>72</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>161</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>9</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C18">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L18">
-        <v>22</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.175</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>66</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.8125</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>13</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.06363636363636363</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>103</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L20">
-        <v>23</v>
-      </c>
-      <c r="M20">
-        <v>23</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L21">
-        <v>42</v>
-      </c>
-      <c r="M21">
-        <v>42</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>39</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L25">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>13</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.76</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.75</v>
-      </c>
-      <c r="L27">
-        <v>9</v>
-      </c>
-      <c r="M27">
-        <v>9</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L28">
-        <v>29</v>
-      </c>
-      <c r="M28">
-        <v>29</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
-      <c r="M29">
-        <v>19</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L30">
-        <v>42</v>
-      </c>
-      <c r="M30">
-        <v>42</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L31">
-        <v>52</v>
-      </c>
-      <c r="M31">
-        <v>52</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>0.7</v>
-      </c>
-      <c r="L32">
-        <v>7</v>
-      </c>
-      <c r="M32">
-        <v>7</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1910,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6470588235294118</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1936,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.631578947368421</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1962,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.625</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1988,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5600000000000001</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2014,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.55</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2040,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5454545454545454</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2066,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5454545454545454</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2092,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.539906103286385</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2118,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2144,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5384615384615384</v>
+        <v>0.3514644351464435</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2170,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.5357142857142857</v>
+        <v>0.35</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2196,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2222,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.4651162790697674</v>
+        <v>0.3125</v>
       </c>
       <c r="L46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2248,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.4583333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L47">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2274,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.4</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2300,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.375</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2326,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.3695652173913043</v>
+        <v>0.006437077566784679</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2352,137 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51">
-        <v>0.28</v>
-      </c>
-      <c r="L51">
-        <v>7</v>
-      </c>
-      <c r="M51">
-        <v>7</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>10</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53">
-        <v>0.25</v>
-      </c>
-      <c r="L53">
-        <v>8</v>
-      </c>
-      <c r="M53">
-        <v>8</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K54">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="L54">
-        <v>9</v>
-      </c>
-      <c r="M54">
-        <v>9</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55">
-        <v>0.01951219512195122</v>
-      </c>
-      <c r="L55">
-        <v>8</v>
-      </c>
-      <c r="M55">
-        <v>8</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>402</v>
+        <v>3087</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,30 @@
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -100,124 +106,130 @@
     <t>strong</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -578,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -697,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -747,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -818,7 +830,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.9473684210526315</v>
@@ -847,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6206896551724138</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>0.9393939393939394</v>
@@ -897,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6164383561643836</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C8">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>0.9230769230769231</v>
@@ -947,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6153846153846154</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.9090909090909091</v>
@@ -997,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8913043478260869</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2266666666666667</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1802325581395349</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1587301587301587</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,63 +1209,87 @@
         <v>19</v>
       </c>
       <c r="B14">
+        <v>0.1693121693121693</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>157</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>0.1006711409395973</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>134</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.828125</v>
-      </c>
-      <c r="L14">
-        <v>106</v>
-      </c>
-      <c r="M14">
-        <v>106</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8170731707317073</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,12 +1301,36 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>238</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0.7777777777777778</v>
@@ -1296,7 +1356,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K17">
         <v>0.7758620689655172</v>
@@ -1322,16 +1382,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7666666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7253521126760564</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L20">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M20">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.7169811320754716</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L21">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.725</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.69375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.6521739130434783</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.6388888888888888</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.6349206349206349</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1660,16 +1720,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.5957446808510638</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.5294117647058824</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4986945169712794</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L34">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>192</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.4888888888888889</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.4848484848484849</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.4705882352941176</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L37">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="M37">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.4269662921348314</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.4203389830508474</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1889,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K40">
         <v>0.4</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1915,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K41">
         <v>0.4</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1941,12 +2001,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K42">
         <v>0.3698630136986301</v>
@@ -1972,16 +2032,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.3514644351464435</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L43">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1993,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>155</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.35</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2019,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.3255813953488372</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2045,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.3125</v>
+        <v>0.3096234309623431</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2071,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.3076923076923077</v>
+        <v>0.296875</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2097,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.2285714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2123,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.02237136465324385</v>
+        <v>0.01553829078801332</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2149,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.006437077566784679</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2175,7 +2235,59 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>3087</v>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51">
+        <v>0.006542056074766356</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>0.82</v>
+      </c>
+      <c r="O51">
+        <v>0.18</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K52">
+        <v>0.004188144329896907</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3091</v>
       </c>
     </row>
   </sheetData>
